--- a/notebooks/rcmip-data-submission-template-held-two-layer.xlsx
+++ b/notebooks/rcmip-data-submission-template-held-two-layer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2EF1E2-27BE-1B4E-B38D-B8F67C06DFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285DB68A-2A20-9B43-A874-169556ABCD94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16560" tabRatio="682" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1224">
   <si>
     <t>Category</t>
   </si>
@@ -3783,6 +3783,9 @@
   </si>
   <si>
     <t>Held, I.M., M. Winton, K. Takahashi, T. Delworth, F. Zeng, and G.K. Vallis, 2010: Probing the Fast and Slow Components of Global Warming by Returning Abruptly to Preindustrial Forcing. J. Climate, 23, 2418–2427, https://doi.org/10.1175/2009JCLI3466.1</t>
+  </si>
+  <si>
+    <t>ECS-3K</t>
   </si>
 </sst>
 </file>
@@ -4216,20 +4219,20 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4626,25 +4629,25 @@
       <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="47.25" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="79"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="35.75" customHeight="1">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="76"/>
+      <c r="B3" s="78"/>
     </row>
     <row r="4" spans="1:13" ht="61" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
@@ -4663,20 +4666,20 @@
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="25.5" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="77"/>
     </row>
     <row r="7" spans="1:13" ht="6" customHeight="1">
       <c r="A7" s="17"/>
       <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="4" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A8" s="76" t="s">
+      <c r="A8" s="78" t="s">
         <v>848</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4690,8 +4693,8 @@
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4705,10 +4708,10 @@
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="78" t="s">
         <v>992</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4722,8 +4725,8 @@
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4737,10 +4740,10 @@
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" s="4" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="78" t="s">
         <v>237</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4754,8 +4757,8 @@
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" s="4" customFormat="1" ht="6" customHeight="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4769,10 +4772,10 @@
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" s="4" customFormat="1" ht="90" customHeight="1">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="78" t="s">
         <v>628</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4801,10 +4804,10 @@
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="77" t="s">
         <v>820</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="77"/>
     </row>
     <row r="17" spans="1:2" ht="26.25" customHeight="1">
       <c r="A17" s="69" t="s">
@@ -4827,10 +4830,10 @@
       <c r="B19" s="17"/>
     </row>
     <row r="20" spans="1:2" ht="27.75" customHeight="1">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="78"/>
     </row>
     <row r="21" spans="1:2" ht="27.75" customHeight="1">
       <c r="A21" s="72"/>
@@ -4843,10 +4846,10 @@
       <c r="B22" s="72"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="76" t="s">
+      <c r="A23" s="78" t="s">
         <v>1176</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="78"/>
     </row>
     <row r="24" spans="1:2" ht="27.75" customHeight="1">
       <c r="A24" s="68"/>
@@ -4859,10 +4862,10 @@
       <c r="B25" s="68"/>
     </row>
     <row r="26" spans="1:2" ht="88" customHeight="1">
-      <c r="A26" s="76" t="s">
+      <c r="A26" s="78" t="s">
         <v>1032</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="78"/>
     </row>
     <row r="27" spans="1:2" ht="27.75" customHeight="1">
       <c r="A27" s="68"/>
@@ -4941,22 +4944,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1" xr:uid="{688D9660-F982-E440-B8DB-8E4CDAF396B8}"/>
@@ -17375,8 +17378,8 @@
   </sheetPr>
   <dimension ref="A1:CM65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.6640625" defaultRowHeight="13"/>
@@ -17657,7 +17660,7 @@
       <c r="A4" s="53"/>
       <c r="B4" s="54" t="str">
         <f>CONCATENATE(C4, "-",D4,"-", E4)</f>
-        <v>held-two-layer-uom-CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-ECS-3K</v>
       </c>
       <c r="C4" t="s">
         <v>1220</v>
@@ -17666,17 +17669,17 @@
         <v>1221</v>
       </c>
       <c r="E4" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="F4">
-        <v>1.9029266378232199</v>
+        <v>2.9990884608433701</v>
       </c>
       <c r="G4">
-        <v>1.7370727506569299</v>
+        <v>2.2915686567225699</v>
       </c>
       <c r="H4" s="28" t="str">
         <f>"Model configuration tuned to "&amp;E4</f>
-        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to ECS-3K</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>1203</v>
@@ -17689,8 +17692,8 @@
     <row r="5" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="A5" s="53"/>
       <c r="B5" s="54" t="str">
-        <f t="shared" ref="B5:B35" si="0">CONCATENATE(C5, "-",D5,"-", E5)</f>
-        <v>held-two-layer-uom-CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <f t="shared" ref="B5:B19" si="0">CONCATENATE(C5, "-",D5,"-", E5)</f>
+        <v>held-two-layer-uom-CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C5" t="s">
         <v>1220</v>
@@ -17699,17 +17702,17 @@
         <v>1221</v>
       </c>
       <c r="E5" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="F5">
-        <v>2.1681886616644399</v>
+        <v>2.6316544309620502</v>
       </c>
       <c r="G5">
-        <v>1.7219650368094199</v>
+        <v>1.96848207006647</v>
       </c>
       <c r="H5" s="28" t="str">
-        <f t="shared" ref="H5:H35" si="1">"Model configuration tuned to "&amp;E5</f>
-        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
+        <f t="shared" ref="H5:H19" si="1">"Model configuration tuned to "&amp;E5</f>
+        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J5" s="28" t="str">
         <f>J4</f>
@@ -17725,7 +17728,7 @@
       <c r="A6" s="53"/>
       <c r="B6" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C6" t="s">
         <v>1220</v>
@@ -17734,24 +17737,24 @@
         <v>1221</v>
       </c>
       <c r="E6" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="F6">
-        <v>2.28660367632658</v>
+        <v>2.3129886009368801</v>
       </c>
       <c r="G6">
-        <v>1.9878480022687399</v>
+        <v>1.7513684075584599</v>
       </c>
       <c r="H6" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J6" s="28" t="str">
-        <f t="shared" ref="J6:J35" si="2">J5</f>
+        <f t="shared" ref="J6:J19" si="2">J5</f>
         <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
       </c>
       <c r="K6" s="30" t="str">
-        <f t="shared" ref="K6:K35" si="3">K5</f>
+        <f t="shared" ref="K6:K19" si="3">K5</f>
         <v>Held, I.M., M. Winton, K. Takahashi, T. Delworth, F. Zeng, and G.K. Vallis, 2010: Probing the Fast and Slow Components of Global Warming by Returning Abruptly to Preindustrial Forcing. J. Climate, 23, 2418–2427, https://doi.org/10.1175/2009JCLI3466.1</v>
       </c>
       <c r="L6" s="32"/>
@@ -17760,7 +17763,7 @@
       <c r="A7" s="53"/>
       <c r="B7" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="C7" t="s">
         <v>1220</v>
@@ -17769,17 +17772,17 @@
         <v>1221</v>
       </c>
       <c r="E7" t="s">
-        <v>1206</v>
+        <v>1219</v>
       </c>
       <c r="F7">
-        <v>2.3129886009368801</v>
+        <v>2.5509362382325902</v>
       </c>
       <c r="G7">
-        <v>1.7513684075584599</v>
+        <v>2.0174879957442098</v>
       </c>
       <c r="H7" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-ESM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
       </c>
       <c r="J7" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17795,7 +17798,7 @@
       <c r="A8" s="53"/>
       <c r="B8" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="C8" t="s">
         <v>1220</v>
@@ -17804,17 +17807,17 @@
         <v>1221</v>
       </c>
       <c r="E8" t="s">
-        <v>1207</v>
+        <v>1218</v>
       </c>
       <c r="F8">
-        <v>2.4770791637785798</v>
+        <v>3.6331535612815902</v>
       </c>
       <c r="G8">
-        <v>1.89876225577122</v>
+        <v>2.1545007469512698</v>
       </c>
       <c r="H8" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
       </c>
       <c r="J8" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17830,7 +17833,7 @@
       <c r="A9" s="53"/>
       <c r="B9" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C9" t="s">
         <v>1220</v>
@@ -17839,17 +17842,17 @@
         <v>1221</v>
       </c>
       <c r="E9" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="F9">
-        <v>2.5033804123565901</v>
+        <v>2.9127371862941298</v>
       </c>
       <c r="G9">
-        <v>1.7644608987314301</v>
+        <v>2.3223656268953499</v>
       </c>
       <c r="H9" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J9" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17865,7 +17868,7 @@
       <c r="A10" s="53"/>
       <c r="B10" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="C10" t="s">
         <v>1220</v>
@@ -17874,17 +17877,17 @@
         <v>1221</v>
       </c>
       <c r="E10" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="F10">
-        <v>2.5509362382325902</v>
+        <v>2.28660367632658</v>
       </c>
       <c r="G10">
-        <v>2.0174879957442098</v>
+        <v>1.9878480022687399</v>
       </c>
       <c r="H10" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2-WACCM_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CNRM-ESM2-1_r1i1p1f2-CALIB</v>
       </c>
       <c r="J10" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17900,7 +17903,7 @@
       <c r="A11" s="53"/>
       <c r="B11" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="C11" t="s">
         <v>1220</v>
@@ -17909,17 +17912,17 @@
         <v>1221</v>
       </c>
       <c r="E11" t="s">
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="F11">
-        <v>2.6316544309620502</v>
+        <v>3.13889548643502</v>
       </c>
       <c r="G11">
-        <v>1.96848207006647</v>
+        <v>2.65463454754387</v>
       </c>
       <c r="H11" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-BCC-CSM2-MR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
       </c>
       <c r="J11" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17935,7 +17938,7 @@
       <c r="A12" s="53"/>
       <c r="B12" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="C12" t="s">
         <v>1220</v>
@@ -17944,17 +17947,17 @@
         <v>1221</v>
       </c>
       <c r="E12" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="F12">
-        <v>2.9127371862941298</v>
+        <v>3.5037037546815499</v>
       </c>
       <c r="G12">
-        <v>2.3223656268953499</v>
+        <v>2.4986714242560999</v>
       </c>
       <c r="H12" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CNRM-CM6-1_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
       </c>
       <c r="J12" s="28" t="str">
         <f t="shared" si="2"/>
@@ -17970,7 +17973,7 @@
       <c r="A13" s="53"/>
       <c r="B13" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C13" t="s">
         <v>1220</v>
@@ -17979,17 +17982,17 @@
         <v>1221</v>
       </c>
       <c r="E13" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="F13">
-        <v>3.13889548643502</v>
+        <v>2.5033804123565901</v>
       </c>
       <c r="G13">
-        <v>2.65463454754387</v>
+        <v>1.7644608987314301</v>
       </c>
       <c r="H13" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CanESM5_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J13" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18005,7 +18008,7 @@
       <c r="A14" s="38"/>
       <c r="B14" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="C14" t="s">
         <v>1220</v>
@@ -18014,17 +18017,17 @@
         <v>1221</v>
       </c>
       <c r="E14" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="F14">
-        <v>3.5037037546815499</v>
+        <v>2.4770791637785798</v>
       </c>
       <c r="G14">
-        <v>2.4986714242560999</v>
+        <v>1.89876225577122</v>
       </c>
       <c r="H14" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-EC-Earth3-Veg_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-1-H_r1i1p1f1-CALIB</v>
       </c>
       <c r="J14" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18039,7 +18042,7 @@
     <row r="15" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B15" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="C15" t="s">
         <v>1220</v>
@@ -18048,17 +18051,17 @@
         <v>1221</v>
       </c>
       <c r="E15" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F15">
-        <v>3.6331535612815902</v>
+        <v>1.9029266378232199</v>
       </c>
       <c r="G15">
-        <v>2.1545007469512698</v>
+        <v>1.7370727506569299</v>
       </c>
       <c r="H15" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-CESM2_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-GISS-E2-2-G_r1i1p1f1-CALIB</v>
       </c>
       <c r="J15" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18072,7 +18075,7 @@
     <row r="16" spans="1:91" ht="36.75" customHeight="1" thickBot="1">
       <c r="B16" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C16" t="s">
         <v>1220</v>
@@ -18081,17 +18084,17 @@
         <v>1221</v>
       </c>
       <c r="E16" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="F16">
-        <v>4.1060104767296499</v>
+        <v>4.5691787798199703</v>
       </c>
       <c r="G16">
-        <v>2.8265220190646998</v>
+        <v>2.39525239510994</v>
       </c>
       <c r="H16" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J16" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18105,7 +18108,7 @@
     <row r="17" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B17" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="C17" t="s">
         <v>1220</v>
@@ -18114,17 +18117,17 @@
         <v>1221</v>
       </c>
       <c r="E17" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="F17">
-        <v>4.1534639269888904</v>
+        <v>2.1681886616644399</v>
       </c>
       <c r="G17">
-        <v>1.65843696112954</v>
+        <v>1.7219650368094199</v>
       </c>
       <c r="H17" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-MPI-ESM1-2-HR_r1i1p1f1-CALIB</v>
       </c>
       <c r="J17" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18138,7 +18141,7 @@
     <row r="18" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B18" s="54" t="str">
         <f t="shared" si="0"/>
-        <v>held-two-layer-uom-CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>held-two-layer-uom-CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="C18" t="s">
         <v>1220</v>
@@ -18147,17 +18150,17 @@
         <v>1221</v>
       </c>
       <c r="E18" t="s">
-        <v>1212</v>
+        <v>1216</v>
       </c>
       <c r="F18">
-        <v>4.5691787798199703</v>
+        <v>4.1534639269888904</v>
       </c>
       <c r="G18">
-        <v>2.39525239510994</v>
+        <v>1.65843696112954</v>
       </c>
       <c r="H18" s="28" t="str">
         <f t="shared" si="1"/>
-        <v>Model configuration tuned to CMIP6-IPSL-CM6A-LR_r1i1p1f1-CALIB</v>
+        <v>Model configuration tuned to CMIP6-NorCPM1_r1i1p1f1-CALIB</v>
       </c>
       <c r="J18" s="28" t="str">
         <f t="shared" si="2"/>
@@ -18169,13 +18172,37 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
-      <c r="B19" s="54"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="K19" s="30"/>
+      <c r="B19" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>held-two-layer-uom-CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F19">
+        <v>4.1060104767296499</v>
+      </c>
+      <c r="G19">
+        <v>2.8265220190646998</v>
+      </c>
+      <c r="H19" s="28" t="str">
+        <f t="shared" si="1"/>
+        <v>Model configuration tuned to CMIP6-UKESM1-0-LL_r1i1p1f2-CALIB</v>
+      </c>
+      <c r="J19" s="28" t="str">
+        <f t="shared" si="2"/>
+        <v>Zebedee Nicholls (zebedee.nicholls@climate-energy-college.org)</v>
+      </c>
+      <c r="K19" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>Held, I.M., M. Winton, K. Takahashi, T. Delworth, F. Zeng, and G.K. Vallis, 2010: Probing the Fast and Slow Components of Global Warming by Returning Abruptly to Preindustrial Forcing. J. Climate, 23, 2418–2427, https://doi.org/10.1175/2009JCLI3466.1</v>
+      </c>
     </row>
     <row r="20" spans="2:11" ht="36.75" customHeight="1" thickBot="1">
       <c r="B20" s="54"/>
